--- a/output-2/drone-polysemi/transformer/train_history_transformer.xlsx
+++ b/output-2/drone-polysemi/transformer/train_history_transformer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB19"/>
+  <dimension ref="A1:BB21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1524,12 +1524,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>adatrans</t>
+          <t>lstm</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>elmo</t>
+          <t>bert</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1544,264 +1544,264 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.679785</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.7713</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.775738</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.793725</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.842767</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.811189</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.849962</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.846505</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.872473</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.822544</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.840909</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.834094</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.816964</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.876336</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.850345</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.877786</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.881279</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.864536</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.858454</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.882579</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.857798</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.862835</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.849042</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.846213</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.847743</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.84881</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.867229</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.853211</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.884114</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.866213</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.855828</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.858454</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.849085</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.852986</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.84639</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.878951</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.866821</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.870769</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.853435</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.877974</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.866154</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.868764</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.864823</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.870769</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.867896</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.867896</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.867896</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.867896</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.864823</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.867896</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cnn</t>
+          <t>adatrans</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>glove</t>
+          <t>elmo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1816,252 +1816,252 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.65272</t>
+          <t>0.743039</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.690909</t>
+          <t>0.822059</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.717647</t>
+          <t>0.824345</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.749821</t>
+          <t>0.805349</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.803419</t>
+          <t>0.819403</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.82479</t>
+          <t>0.840246</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.819905</t>
+          <t>0.842025</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.808314</t>
+          <t>0.873757</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0.792395</t>
+          <t>0.826707</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0.807966</t>
+          <t>0.841705</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.846096</t>
+          <t>0.849923</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.794852</t>
+          <t>0.846861</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.779817</t>
+          <t>0.849693</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.827957</t>
+          <t>0.842748</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.820748</t>
+          <t>0.851682</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.774242</t>
+          <t>0.846861</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.819985</t>
+          <t>0.85474</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.834743</t>
+          <t>0.841538</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>0.803667</t>
+          <t>0.874712</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>0.807663</t>
+          <t>0.879324</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>0.780812</t>
+          <t>0.867025</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>0.77434</t>
+          <t>0.856264</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0.815504</t>
+          <t>0.840491</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>0.812645</t>
+          <t>0.863951</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>0.816074</t>
+          <t>0.863951</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>0.813559</t>
+          <t>0.857802</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>0.808576</t>
+          <t>0.857802</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>0.809195</t>
+          <t>0.840246</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>0.810241</t>
+          <t>0.841136</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>0.804059</t>
+          <t>0.847926</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>0.815159</t>
+          <t>0.846154</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>0.841065</t>
+          <t>0.846154</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>0.803653</t>
+          <t>0.85495</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>0.804878</t>
+          <t>0.846154</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>0.792598</t>
+          <t>0.85495</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>0.811683</t>
+          <t>0.85495</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>0.833205</t>
+          <t>0.850575</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>0.814187</t>
+          <t>0.839847</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>0.834225</t>
+          <t>0.839847</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>0.813559</t>
+          <t>0.842429</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>0.813559</t>
+          <t>0.850345</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>0.791988</t>
+          <t>0.844037</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>0.813559</t>
+          <t>0.83792</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>0.791988</t>
+          <t>0.841136</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>0.783537</t>
+          <t>0.843726</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>0.792598</t>
+          <t>0.843726</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>0.789555</t>
+          <t>0.843726</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>0.81106</t>
+          <t>0.839847</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>0.812933</t>
+          <t>0.839847</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
         <is>
-          <t>0.812933</t>
+          <t>0.839847</t>
         </is>
       </c>
     </row>
@@ -2088,269 +2088,269 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.702778</t>
+          <t>0.689008</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.752624</t>
+          <t>0.777695</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.802996</t>
+          <t>0.787549</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.879581</t>
+          <t>0.782216</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.879454</t>
+          <t>0.806283</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.876133</t>
+          <t>0.842663</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.836531</t>
+          <t>0.875569</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.885196</t>
+          <t>0.868878</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.858896</t>
+          <t>0.870643</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0.845027</t>
+          <t>0.869697</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.854503</t>
+          <t>0.829963</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.838906</t>
+          <t>0.837461</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.858238</t>
+          <t>0.857585</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.861492</t>
+          <t>0.841943</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.900532</t>
+          <t>0.866154</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.890756</t>
+          <t>0.894334</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0.885519</t>
+          <t>0.875676</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.898638</t>
+          <t>0.891603</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>0.862866</t>
+          <t>0.892284</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>0.860876</t>
+          <t>0.890244</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>0.860215</t>
+          <t>0.87017</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>0.861751</t>
+          <t>0.877519</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>0.859555</t>
+          <t>0.864865</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>0.854489</t>
+          <t>0.877519</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>0.861303</t>
+          <t>0.883721</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>0.861751</t>
+          <t>0.892966</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>0.862414</t>
+          <t>0.874224</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>0.861751</t>
+          <t>0.89365</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>0.895137</t>
+          <t>0.898331</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>0.898485</t>
+          <t>0.892966</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>0.865237</t>
+          <t>0.892284</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>0.862866</t>
+          <t>0.892966</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>0.8567</t>
+          <t>0.894977</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>0.899848</t>
+          <t>0.892966</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>0.865031</t>
+          <t>0.894977</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>0.854938</t>
+          <t>0.892966</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>0.867229</t>
+          <t>0.899013</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>0.895659</t>
+          <t>0.896341</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>0.861538</t>
+          <t>0.89365</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>0.862835</t>
+          <t>0.895019</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>0.865695</t>
+          <t>0.896341</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>0.866359</t>
+          <t>0.898331</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>0.899166</t>
+          <t>0.896341</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
+          <t>0.896341</t>
+        </is>
+      </c>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>0.896341</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
           <t>0.899696</t>
         </is>
       </c>
-      <c r="AW7" t="inlineStr">
-        <is>
-          <t>0.899848</t>
-        </is>
-      </c>
-      <c r="AX7" t="inlineStr">
-        <is>
-          <t>0.900532</t>
-        </is>
-      </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>0.900532</t>
+          <t>0.897025</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>0.900532</t>
+          <t>0.897025</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>0.900532</t>
+          <t>0.897025</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
         <is>
-          <t>0.899696</t>
+          <t>0.896341</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>cnn</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>elmo</t>
+          <t>glove</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>unscaled</t>
+          <t>scaled</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2360,252 +2360,252 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.65272</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.690909</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.717647</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.749821</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.803419</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.82479</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.819905</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.808314</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.792395</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.807966</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.846096</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.794852</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.779817</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.827957</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.820748</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.774242</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.819985</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.834743</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.803667</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.807663</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.780812</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.77434</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.815504</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.812645</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.816074</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.813559</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.808576</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.809195</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.810241</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.804059</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.815159</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.841065</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.803653</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.804878</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.792598</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.811683</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.833205</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.814187</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.834225</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.813559</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.813559</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.791988</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.813559</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.791988</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.783537</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.792598</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.789555</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.81106</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.812933</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.812933</t>
         </is>
       </c>
     </row>
@@ -2617,12 +2617,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>glove</t>
+          <t>bert</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>unscaled</t>
+          <t>scaled</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2632,259 +2632,259 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.559441</t>
+          <t>0.702778</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.746753</t>
+          <t>0.752624</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.781425</t>
+          <t>0.802996</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.736296</t>
+          <t>0.879581</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.781919</t>
+          <t>0.879454</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.775244</t>
+          <t>0.876133</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.802498</t>
+          <t>0.836531</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.785438</t>
+          <t>0.885196</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0.79282</t>
+          <t>0.858896</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>0.840154</t>
+          <t>0.845027</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.812883</t>
+          <t>0.854503</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.794379</t>
+          <t>0.838906</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>0.824885</t>
+          <t>0.858238</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.825787</t>
+          <t>0.861492</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.823259</t>
+          <t>0.900532</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.795858</t>
+          <t>0.890756</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.827692</t>
+          <t>0.885519</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.799406</t>
+          <t>0.898638</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>0.821374</t>
+          <t>0.862866</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>0.799406</t>
+          <t>0.860876</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>0.82263</t>
+          <t>0.860215</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>0.817552</t>
+          <t>0.861751</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>0.82389</t>
+          <t>0.859555</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>0.818318</t>
+          <t>0.854489</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>0.817552</t>
+          <t>0.861303</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>0.814534</t>
+          <t>0.861751</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>0.811463</t>
+          <t>0.862414</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>0.816923</t>
+          <t>0.861751</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>0.81312</t>
+          <t>0.895137</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>0.828856</t>
+          <t>0.898485</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>0.816923</t>
+          <t>0.865237</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>0.826953</t>
+          <t>0.862866</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>0.820748</t>
+          <t>0.8567</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>0.821729</t>
+          <t>0.899848</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>0.822989</t>
+          <t>0.865031</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>0.819222</t>
+          <t>0.854938</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>0.819847</t>
+          <t>0.867229</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>0.817974</t>
+          <t>0.895659</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>0.816265</t>
+          <t>0.861538</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>0.829305</t>
+          <t>0.862835</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>0.821856</t>
+          <t>0.865695</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>0.812405</t>
+          <t>0.866359</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>0.811791</t>
+          <t>0.899166</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>0.811178</t>
+          <t>0.899696</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>0.814871</t>
+          <t>0.899848</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>0.819222</t>
+          <t>0.900532</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>0.818598</t>
+          <t>0.900532</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>0.819222</t>
+          <t>0.900532</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>0.818598</t>
+          <t>0.900532</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
         <is>
-          <t>0.818598</t>
+          <t>0.899696</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>adatrans</t>
+          <t>lstm</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2904,252 +2904,252 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.780675</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.849779</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.844175</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.823711</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.857355</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.856928</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.82717</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.825923</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.867309</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.851485</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.83728</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.877868</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.844343</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.864536</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.85474</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.849042</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.869173</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.864253</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.845007</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.829268</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.85061</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.833706</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.82816</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.839847</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.833841</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.833841</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.844646</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.857143</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.829268</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.843774</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.826284</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.843049</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.839939</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.833841</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.833841</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.838951</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.877323</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.83473</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.840688</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.851159</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.82717</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.840688</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.840688</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.861631</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.858232</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.83689</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.858232</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.858232</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.858232</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.858232</t>
         </is>
       </c>
     </row>
@@ -3161,12 +3161,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>elmo</t>
+          <t>glove</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>scaled</t>
+          <t>unscaled</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -3176,259 +3176,259 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.559441</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.746753</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.781425</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.736296</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.781919</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.775244</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.802498</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.785438</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.79282</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.840154</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.812883</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.794379</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.824885</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.825787</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.823259</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.795858</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.827692</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.799406</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.821374</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.799406</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.82263</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.817552</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.82389</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.818318</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.817552</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.814534</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.811463</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.816923</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.81312</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.828856</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.816923</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.826953</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.820748</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.821729</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.822989</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.819222</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.819847</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.817974</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.816265</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.829305</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.821856</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.812405</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.811791</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.811178</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.814871</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.819222</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.818598</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.819222</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.818598</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.818598</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>cnn</t>
+          <t>adatrans</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3438,7 +3438,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>scaled</t>
+          <t>unscaled</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -3448,252 +3448,252 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.849663</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.843726</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.869697</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.848899</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.862625</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.884003</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.869565</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.857571</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.870606</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.891045</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.877086</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.87922</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.86233</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.884929</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.873668</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.862983</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.864575</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.870091</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.85997</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.876609</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.874433</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.869039</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.890235</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.871017</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.870748</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.855413</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.88133</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.866011</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.88133</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.867725</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.870748</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.870748</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.870748</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.869039</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.872067</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.872067</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.872067</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.872067</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.858441</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.858441</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.85671</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.870356</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.85671</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.860166</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.858441</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.858441</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.858441</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.858441</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.858441</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.858441</t>
         </is>
       </c>
     </row>
@@ -3705,12 +3705,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>bert</t>
+          <t>elmo</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>unscaled</t>
+          <t>scaled</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3720,252 +3720,252 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.716878</t>
+          <t>0.737455</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.686341</t>
+          <t>0.808251</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.83707</t>
+          <t>0.8307</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.870748</t>
+          <t>0.838323</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.85758</t>
+          <t>0.816083</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.781155</t>
+          <t>0.854354</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.862625</t>
+          <t>0.814585</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.845004</t>
+          <t>0.826687</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0.833724</t>
+          <t>0.850769</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0.857585</t>
+          <t>0.834621</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.853415</t>
+          <t>0.826625</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.864122</t>
+          <t>0.8429</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>0.850467</t>
+          <t>0.830723</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.846901</t>
+          <t>0.8414</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0.865579</t>
+          <t>0.852807</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>0.897554</t>
+          <t>0.848943</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>0.878951</t>
+          <t>0.853677</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>0.878161</t>
+          <t>0.831444</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>0.846792</t>
+          <t>0.837349</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>0.884615</t>
+          <t>0.848394</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>0.885845</t>
+          <t>0.853881</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>0.848249</t>
+          <t>0.861678</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>0.877167</t>
+          <t>0.844579</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>0.848578</t>
+          <t>0.842508</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>0.847692</t>
+          <t>0.843137</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>0.847458</t>
+          <t>0.840755</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>0.842514</t>
+          <t>0.842424</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>0.897338</t>
+          <t>0.848758</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>0.886864</t>
+          <t>0.849811</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>0.852025</t>
+          <t>0.851964</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>0.891271</t>
+          <t>0.861678</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>0.843168</t>
+          <t>0.861678</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>0.856037</t>
+          <t>0.854753</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>0.891271</t>
+          <t>0.854753</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>0.849845</t>
+          <t>0.851321</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>0.854054</t>
+          <t>0.861631</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>0.849845</t>
+          <t>0.846915</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>0.844307</t>
+          <t>0.844985</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>0.84472</t>
+          <t>0.844106</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>0.847826</t>
+          <t>0.844106</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>0.891271</t>
+          <t>0.854753</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>0.885145</t>
+          <t>0.844106</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>0.854037</t>
+          <t>0.847148</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>0.852484</t>
+          <t>0.847148</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>0.887865</t>
+          <t>0.854753</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>0.885145</t>
+          <t>0.854753</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>0.883614</t>
+          <t>0.854753</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>0.883117</t>
+          <t>0.854753</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>0.891271</t>
+          <t>0.854753</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
         <is>
-          <t>0.891271</t>
+          <t>0.854753</t>
         </is>
       </c>
     </row>
@@ -3977,12 +3977,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>glove</t>
+          <t>elmo</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>unscaled</t>
+          <t>scaled</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -3992,269 +3992,269 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.586907</t>
+          <t>0.74727</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.72578</t>
+          <t>0.842496</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.747979</t>
+          <t>0.850932</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.779479</t>
+          <t>0.879412</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.797555</t>
+          <t>0.844376</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.808675</t>
+          <t>0.863671</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.811866</t>
+          <t>0.871601</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.818111</t>
+          <t>0.853095</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>0.799062</t>
+          <t>0.896036</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.881151</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0.809302</t>
+          <t>0.873772</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.831939</t>
+          <t>0.896499</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>0.83861</t>
+          <t>0.870821</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.824885</t>
+          <t>0.879878</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.839601</t>
+          <t>0.875767</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>0.829721</t>
+          <t>0.88872</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>0.816171</t>
+          <t>0.884438</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>0.817901</t>
+          <t>0.852986</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>0.863045</t>
+          <t>0.874242</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>0.824252</t>
+          <t>0.864497</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>0.844682</t>
+          <t>0.886364</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>0.842025</t>
+          <t>0.868182</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>0.830601</t>
+          <t>0.844037</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>0.834109</t>
+          <t>0.852986</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>0.817901</t>
+          <t>0.854518</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>0.828125</t>
+          <t>0.83589</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>0.818533</t>
+          <t>0.869832</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>0.826687</t>
+          <t>0.857143</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>0.817204</t>
+          <t>0.840491</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>0.820748</t>
+          <t>0.870356</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>0.843798</t>
+          <t>0.880121</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>0.852559</t>
+          <t>0.88097</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>0.841221</t>
+          <t>0.870356</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>0.840092</t>
+          <t>0.869039</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>0.845329</t>
+          <t>0.890235</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>0.844206</t>
+          <t>0.891585</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>0.844206</t>
+          <t>0.891585</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>0.85802</t>
+          <t>0.891585</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>0.842105</t>
+          <t>0.891585</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>0.843392</t>
+          <t>0.891585</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>0.844444</t>
+          <t>0.891585</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>0.844444</t>
+          <t>0.891585</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>0.844444</t>
+          <t>0.891585</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>0.843392</t>
+          <t>0.891585</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>0.84492</t>
+          <t>0.891585</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>0.843631</t>
+          <t>0.891585</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>0.84492</t>
+          <t>0.890744</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>0.847926</t>
+          <t>0.890744</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>0.847276</t>
+          <t>0.890744</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
         <is>
-          <t>0.845329</t>
+          <t>0.890744</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>adatrans</t>
+          <t>lstm</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>glove</t>
+          <t>bert</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>scaled</t>
+          <t>unscaled</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -4264,252 +4264,252 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.597623</t>
+          <t>0.716878</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.655034</t>
+          <t>0.686341</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.719068</t>
+          <t>0.83707</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.75337</t>
+          <t>0.870748</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.794985</t>
+          <t>0.85758</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.790259</t>
+          <t>0.781155</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.82612</t>
+          <t>0.862625</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.847775</t>
+          <t>0.845004</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.823437</t>
+          <t>0.833724</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>0.807692</t>
+          <t>0.857585</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>0.854294</t>
+          <t>0.853415</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.834769</t>
+          <t>0.864122</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>0.82717</t>
+          <t>0.850467</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.866203</t>
+          <t>0.846901</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>0.845201</t>
+          <t>0.865579</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>0.853232</t>
+          <t>0.897554</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>0.858238</t>
+          <t>0.878951</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>0.845201</t>
+          <t>0.878161</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>0.84544</t>
+          <t>0.846792</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>0.856705</t>
+          <t>0.884615</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>0.863531</t>
+          <t>0.885845</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>0.863109</t>
+          <t>0.848249</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>0.844788</t>
+          <t>0.877167</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>0.842835</t>
+          <t>0.848578</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>0.831426</t>
+          <t>0.847692</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>0.84544</t>
+          <t>0.847458</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>0.842349</t>
+          <t>0.842514</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>0.848437</t>
+          <t>0.897338</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>0.850234</t>
+          <t>0.886864</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>0.860447</t>
+          <t>0.852025</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>0.850234</t>
+          <t>0.891271</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>0.840401</t>
+          <t>0.843168</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>0.842349</t>
+          <t>0.856037</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>0.848249</t>
+          <t>0.891271</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>0.850234</t>
+          <t>0.849845</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>0.849336</t>
+          <t>0.854054</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>0.863109</t>
+          <t>0.849845</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>0.845377</t>
+          <t>0.844307</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>0.849336</t>
+          <t>0.84472</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>0.849336</t>
+          <t>0.847826</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>0.847352</t>
+          <t>0.891271</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
         <is>
-          <t>0.849336</t>
+          <t>0.885145</t>
         </is>
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>0.847352</t>
+          <t>0.854037</t>
         </is>
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>0.843411</t>
+          <t>0.852484</t>
         </is>
       </c>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>0.843411</t>
+          <t>0.887865</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>0.849336</t>
+          <t>0.885145</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr">
         <is>
-          <t>0.849336</t>
+          <t>0.883614</t>
         </is>
       </c>
       <c r="AZ15" t="inlineStr">
         <is>
-          <t>0.849336</t>
+          <t>0.883117</t>
         </is>
       </c>
       <c r="BA15" t="inlineStr">
         <is>
-          <t>0.849336</t>
+          <t>0.891271</t>
         </is>
       </c>
       <c r="BB15" t="inlineStr">
         <is>
-          <t>0.849336</t>
+          <t>0.891271</t>
         </is>
       </c>
     </row>
@@ -4521,12 +4521,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>bert</t>
+          <t>glove</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>scaled</t>
+          <t>unscaled</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -4536,252 +4536,252 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.70134</t>
+          <t>0.586907</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.761827</t>
+          <t>0.72578</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.823617</t>
+          <t>0.747979</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.851471</t>
+          <t>0.779479</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.847887</t>
+          <t>0.797555</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.876033</t>
+          <t>0.808675</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.875</t>
+          <t>0.811866</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.887183</t>
+          <t>0.818111</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.886228</t>
+          <t>0.799062</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>0.884731</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>0.884003</t>
+          <t>0.809302</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.881818</t>
+          <t>0.831939</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>0.885998</t>
+          <t>0.83861</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.858671</t>
+          <t>0.824885</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0.890411</t>
+          <t>0.839601</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>0.853395</t>
+          <t>0.829721</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>0.907994</t>
+          <t>0.816171</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>0.888889</t>
+          <t>0.817901</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>0.898705</t>
+          <t>0.863045</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>0.859112</t>
+          <t>0.824252</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>0.861727</t>
+          <t>0.844682</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
+          <t>0.842025</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>0.830601</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>0.834109</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>0.817901</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>0.828125</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>0.818533</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>0.826687</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>0.817204</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>0.820748</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>0.843798</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>0.852559</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>0.841221</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>0.840092</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>0.845329</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>0.844206</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>0.844206</t>
+        </is>
+      </c>
+      <c r="AP16" t="inlineStr">
+        <is>
+          <t>0.85802</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>0.842105</t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>0.843392</t>
+        </is>
+      </c>
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>0.844444</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr">
+        <is>
+          <t>0.844444</t>
+        </is>
+      </c>
+      <c r="AU16" t="inlineStr">
+        <is>
+          <t>0.844444</t>
+        </is>
+      </c>
+      <c r="AV16" t="inlineStr">
+        <is>
+          <t>0.843392</t>
+        </is>
+      </c>
+      <c r="AW16" t="inlineStr">
+        <is>
           <t>0.84492</t>
         </is>
       </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>0.858469</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>0.864407</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>0.886836</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>0.856043</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>0.893424</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>0.847641</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>0.892119</t>
-        </is>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>0.856037</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>0.855598</t>
-        </is>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>0.896341</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>0.902347</t>
-        </is>
-      </c>
-      <c r="AL16" t="inlineStr">
-        <is>
-          <t>0.888208</t>
-        </is>
-      </c>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>0.853828</t>
-        </is>
-      </c>
-      <c r="AN16" t="inlineStr">
-        <is>
-          <t>0.855162</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>0.855814</t>
-        </is>
-      </c>
-      <c r="AP16" t="inlineStr">
-        <is>
-          <t>0.853828</t>
-        </is>
-      </c>
-      <c r="AQ16" t="inlineStr">
-        <is>
-          <t>0.857364</t>
-        </is>
-      </c>
-      <c r="AR16" t="inlineStr">
-        <is>
-          <t>0.85626</t>
-        </is>
-      </c>
-      <c r="AS16" t="inlineStr">
-        <is>
-          <t>0.862654</t>
-        </is>
-      </c>
-      <c r="AT16" t="inlineStr">
-        <is>
-          <t>0.862654</t>
-        </is>
-      </c>
-      <c r="AU16" t="inlineStr">
-        <is>
-          <t>0.856037</t>
-        </is>
-      </c>
-      <c r="AV16" t="inlineStr">
-        <is>
-          <t>0.856037</t>
-        </is>
-      </c>
-      <c r="AW16" t="inlineStr">
-        <is>
-          <t>0.853828</t>
-        </is>
-      </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>0.8567</t>
+          <t>0.843631</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
         <is>
-          <t>0.856037</t>
+          <t>0.84492</t>
         </is>
       </c>
       <c r="AZ16" t="inlineStr">
         <is>
-          <t>0.857364</t>
+          <t>0.847926</t>
         </is>
       </c>
       <c r="BA16" t="inlineStr">
         <is>
-          <t>0.8567</t>
+          <t>0.847276</t>
         </is>
       </c>
       <c r="BB16" t="inlineStr">
         <is>
-          <t>0.857364</t>
+          <t>0.845329</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>unscaled</t>
+          <t>scaled</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -4808,264 +4808,264 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.526215</t>
+          <t>0.597623</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.647166</t>
+          <t>0.655034</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.7337</t>
+          <t>0.719068</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.787045</t>
+          <t>0.75337</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.796193</t>
+          <t>0.794985</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.83792</t>
+          <t>0.790259</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.846693</t>
+          <t>0.82612</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.809787</t>
+          <t>0.847775</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0.82179</t>
+          <t>0.823437</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>0.865204</t>
+          <t>0.807692</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0.839204</t>
+          <t>0.854294</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0.863636</t>
+          <t>0.834769</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>0.851794</t>
+          <t>0.82717</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0.863077</t>
+          <t>0.866203</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>0.876562</t>
+          <t>0.845201</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>0.868624</t>
+          <t>0.853232</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>0.841622</t>
+          <t>0.858238</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>0.834891</t>
+          <t>0.845201</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>0.825617</t>
+          <t>0.84544</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>0.832432</t>
+          <t>0.856705</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>0.861562</t>
+          <t>0.863531</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>0.836923</t>
+          <t>0.863109</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>0.826255</t>
+          <t>0.844788</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>0.846214</t>
+          <t>0.842835</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>0.874028</t>
+          <t>0.831426</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
+          <t>0.84544</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>0.842349</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>0.848437</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>0.850234</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>0.860447</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>0.850234</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>0.840401</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>0.842349</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>0.848249</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>0.850234</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>0.849336</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>0.863109</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>0.845377</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>0.849336</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>0.849336</t>
+        </is>
+      </c>
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>0.847352</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr">
+        <is>
+          <t>0.849336</t>
+        </is>
+      </c>
+      <c r="AU17" t="inlineStr">
+        <is>
+          <t>0.847352</t>
+        </is>
+      </c>
+      <c r="AV17" t="inlineStr">
+        <is>
           <t>0.843411</t>
         </is>
       </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>0.850234</t>
-        </is>
-      </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="AG17" t="inlineStr">
-        <is>
-          <t>0.85446</t>
-        </is>
-      </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>0.846094</t>
-        </is>
-      </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>0.828504</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>0.817405</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>0.848627</t>
-        </is>
-      </c>
-      <c r="AL17" t="inlineStr">
-        <is>
-          <t>0.848627</t>
-        </is>
-      </c>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>0.869225</t>
-        </is>
-      </c>
-      <c r="AN17" t="inlineStr">
-        <is>
-          <t>0.867659</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>0.868339</t>
-        </is>
-      </c>
-      <c r="AP17" t="inlineStr">
-        <is>
-          <t>0.875</t>
-        </is>
-      </c>
-      <c r="AQ17" t="inlineStr">
-        <is>
-          <t>0.872841</t>
-        </is>
-      </c>
-      <c r="AR17" t="inlineStr">
-        <is>
-          <t>0.875</t>
-        </is>
-      </c>
-      <c r="AS17" t="inlineStr">
-        <is>
-          <t>0.850863</t>
-        </is>
-      </c>
-      <c r="AT17" t="inlineStr">
-        <is>
-          <t>0.855356</t>
-        </is>
-      </c>
-      <c r="AU17" t="inlineStr">
-        <is>
-          <t>0.876369</t>
-        </is>
-      </c>
-      <c r="AV17" t="inlineStr">
-        <is>
-          <t>0.875</t>
-        </is>
-      </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>0.876369</t>
+          <t>0.843411</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>0.876369</t>
+          <t>0.849336</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>0.876369</t>
+          <t>0.849336</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>0.877248</t>
+          <t>0.849336</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>0.876369</t>
+          <t>0.849336</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
         <is>
-          <t>0.876369</t>
+          <t>0.849336</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>cnn</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>glove</t>
+          <t>bert</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -5080,370 +5080,1070 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.620567</t>
+          <t>0.70134</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.699914</t>
+          <t>0.761827</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.746788</t>
+          <t>0.823617</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.746826</t>
+          <t>0.851471</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0.774885</t>
+          <t>0.847887</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.822358</t>
+          <t>0.876033</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.828815</t>
+          <t>0.875</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.837386</t>
+          <t>0.887183</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>0.801228</t>
+          <t>0.886228</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>0.806202</t>
+          <t>0.884731</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0.841121</t>
+          <t>0.884003</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>0.824451</t>
+          <t>0.881818</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>0.830745</t>
+          <t>0.885998</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.813272</t>
+          <t>0.858671</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>0.814704</t>
+          <t>0.890411</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>0.828571</t>
+          <t>0.853395</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>0.843485</t>
+          <t>0.907994</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>0.823713</t>
+          <t>0.888889</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>0.850039</t>
+          <t>0.898705</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>0.835043</t>
+          <t>0.859112</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>0.823161</t>
+          <t>0.861727</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>0.846875</t>
+          <t>0.84492</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>0.845554</t>
+          <t>0.858469</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>0.832685</t>
+          <t>0.864407</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>0.846454</t>
+          <t>0.886836</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>0.832037</t>
+          <t>0.856043</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>0.823988</t>
+          <t>0.893424</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>0.845802</t>
+          <t>0.847641</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>0.831008</t>
+          <t>0.892119</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>0.858238</t>
+          <t>0.856037</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>0.859122</t>
+          <t>0.855598</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>0.855828</t>
+          <t>0.896341</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>0.855375</t>
+          <t>0.902347</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>0.852964</t>
+          <t>0.888208</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>0.850077</t>
+          <t>0.853828</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>0.849188</t>
+          <t>0.855162</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>0.852713</t>
+          <t>0.855814</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>0.850077</t>
+          <t>0.853828</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>0.852713</t>
+          <t>0.857364</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>0.849845</t>
+          <t>0.85626</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>0.847876</t>
+          <t>0.862654</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>0.851823</t>
+          <t>0.862654</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>0.851823</t>
+          <t>0.856037</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>0.850932</t>
+          <t>0.856037</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>0.851823</t>
+          <t>0.853828</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>0.851823</t>
+          <t>0.8567</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>0.853621</t>
+          <t>0.856037</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>0.85626</t>
+          <t>0.857364</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>0.85626</t>
+          <t>0.8567</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
         <is>
-          <t>0.85626</t>
+          <t>0.857364</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>glove</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>unscaled</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>transformer</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0.526215</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.647166</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7337</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0.787045</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0.796193</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>0.83792</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0.846693</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>0.809787</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0.82179</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>0.865204</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>0.839204</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0.863636</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>0.851794</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>0.863077</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>0.876562</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>0.868624</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>0.841622</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>0.834891</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>0.825617</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>0.832432</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>0.861562</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>0.836923</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>0.826255</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>0.846214</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>0.874028</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>0.843411</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>0.850234</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>0.85446</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>0.846094</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>0.828504</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>0.817405</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>0.848627</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>0.848627</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>0.869225</t>
+        </is>
+      </c>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>0.867659</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>0.868339</t>
+        </is>
+      </c>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>0.872841</t>
+        </is>
+      </c>
+      <c r="AR19" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
+      </c>
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>0.850863</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr">
+        <is>
+          <t>0.855356</t>
+        </is>
+      </c>
+      <c r="AU19" t="inlineStr">
+        <is>
+          <t>0.876369</t>
+        </is>
+      </c>
+      <c r="AV19" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
+      </c>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>0.876369</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>0.876369</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr">
+        <is>
+          <t>0.876369</t>
+        </is>
+      </c>
+      <c r="AZ19" t="inlineStr">
+        <is>
+          <t>0.877248</t>
+        </is>
+      </c>
+      <c r="BA19" t="inlineStr">
+        <is>
+          <t>0.876369</t>
+        </is>
+      </c>
+      <c r="BB19" t="inlineStr">
+        <is>
+          <t>0.876369</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>glove</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>scaled</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>transformer</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.620567</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.699914</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.746788</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0.746826</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0.774885</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>0.822358</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0.828815</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>0.837386</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>0.801228</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>0.806202</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>0.841121</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.824451</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>0.830745</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>0.813272</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>0.814704</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>0.828571</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>0.843485</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>0.823713</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>0.850039</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>0.835043</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>0.823161</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>0.846875</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>0.845554</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>0.832685</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>0.846454</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>0.832037</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>0.823988</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>0.845802</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>0.831008</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>0.858238</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>0.859122</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>0.855828</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>0.855375</t>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>0.852964</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>0.850077</t>
+        </is>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>0.849188</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>0.852713</t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>0.850077</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t>0.852713</t>
+        </is>
+      </c>
+      <c r="AR20" t="inlineStr">
+        <is>
+          <t>0.849845</t>
+        </is>
+      </c>
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>0.847876</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr">
+        <is>
+          <t>0.851823</t>
+        </is>
+      </c>
+      <c r="AU20" t="inlineStr">
+        <is>
+          <t>0.851823</t>
+        </is>
+      </c>
+      <c r="AV20" t="inlineStr">
+        <is>
+          <t>0.850932</t>
+        </is>
+      </c>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>0.851823</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>0.851823</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr">
+        <is>
+          <t>0.853621</t>
+        </is>
+      </c>
+      <c r="AZ20" t="inlineStr">
+        <is>
+          <t>0.85626</t>
+        </is>
+      </c>
+      <c r="BA20" t="inlineStr">
+        <is>
+          <t>0.85626</t>
+        </is>
+      </c>
+      <c r="BB20" t="inlineStr">
+        <is>
+          <t>0.85626</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>cnn</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>elmo</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>unscaled</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>transformer</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0.76087</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.808219</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.862716</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>0.857788</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>0.843982</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>0.826807</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>0.862952</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>0.847483</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>0.856083</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>0.835481</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>0.871525</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="inlineStr"/>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
-      <c r="AL19" t="inlineStr"/>
-      <c r="AM19" t="inlineStr"/>
-      <c r="AN19" t="inlineStr"/>
-      <c r="AO19" t="inlineStr"/>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="inlineStr"/>
-      <c r="AT19" t="inlineStr"/>
-      <c r="AU19" t="inlineStr"/>
-      <c r="AV19" t="inlineStr"/>
-      <c r="AW19" t="inlineStr"/>
-      <c r="AX19" t="inlineStr"/>
-      <c r="AY19" t="inlineStr"/>
-      <c r="AZ19" t="inlineStr"/>
-      <c r="BA19" t="inlineStr"/>
-      <c r="BB19" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.810345</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.841867</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.853435</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0.860015</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0.864742</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0.827056</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0.834109</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>0.856703</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>0.83153</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>0.845679</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>0.819222</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>0.873389</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>0.856061</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>0.876249</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>0.858015</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>0.856922</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>0.853828</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>0.855204</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>0.881688</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>0.875097</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>0.881538</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>0.88512</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>0.884438</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>0.883077</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>0.884438</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>0.876265</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>0.882083</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>0.88408</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>0.868966</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>0.878389</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>0.885978</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>0.87684</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>0.883036</t>
+        </is>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>0.880989</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>0.883757</t>
+        </is>
+      </c>
+      <c r="AN21" t="inlineStr">
+        <is>
+          <t>0.880989</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>0.883757</t>
+        </is>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>0.858687</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>0.858687</t>
+        </is>
+      </c>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t>0.882353</t>
+        </is>
+      </c>
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>0.880309</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr">
+        <is>
+          <t>0.85251</t>
+        </is>
+      </c>
+      <c r="AU21" t="inlineStr">
+        <is>
+          <t>0.880309</t>
+        </is>
+      </c>
+      <c r="AV21" t="inlineStr">
+        <is>
+          <t>0.883757</t>
+        </is>
+      </c>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>0.883757</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>0.880309</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t>0.858687</t>
+        </is>
+      </c>
+      <c r="AZ21" t="inlineStr">
+        <is>
+          <t>0.880309</t>
+        </is>
+      </c>
+      <c r="BA21" t="inlineStr">
+        <is>
+          <t>0.883757</t>
+        </is>
+      </c>
+      <c r="BB21" t="inlineStr">
+        <is>
+          <t>0.883757</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
